--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magi8\Dropbox\스케쥴\3278\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A3B732-FFB6-4D36-9C35-79CC96095811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7983E964-C5AE-4AFC-BB32-F938DE18DD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="870" windowWidth="28665" windowHeight="15330" xr2:uid="{BEAC9285-98BE-4FFD-B050-3999AAAE424F}"/>
+    <workbookView xWindow="-240" yWindow="405" windowWidth="28665" windowHeight="15330" xr2:uid="{BEAC9285-98BE-4FFD-B050-3999AAAE424F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,873 +34,1323 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="439">
   <si>
     <t>Circuit</t>
   </si>
   <si>
-    <t>P-1M-9</t>
-  </si>
-  <si>
-    <t>P-1M-4</t>
-  </si>
-  <si>
-    <t>P-EM-7A</t>
-  </si>
-  <si>
-    <t>P-2M-28</t>
-  </si>
-  <si>
-    <t>P-2M-4</t>
-  </si>
-  <si>
-    <t>A-SR2-1</t>
-  </si>
-  <si>
-    <t>A-SR2-2</t>
-  </si>
-  <si>
-    <t>P-1L-1</t>
-  </si>
-  <si>
-    <t>P-1M-24</t>
-  </si>
-  <si>
-    <t>A-NGS-7</t>
-  </si>
-  <si>
-    <t>A-NGS-8</t>
-  </si>
-  <si>
-    <t>P-A1-7</t>
-  </si>
-  <si>
-    <t>A-NGS-9</t>
-  </si>
-  <si>
-    <t>A-BWT3-3</t>
-  </si>
-  <si>
-    <t>A-BWT3-4</t>
-  </si>
-  <si>
-    <t>P-1L-17</t>
-  </si>
-  <si>
-    <t>P-BWTS-001</t>
-  </si>
-  <si>
-    <t>P-1M-16</t>
-  </si>
-  <si>
-    <t>P-1M-3</t>
-  </si>
-  <si>
-    <t>P-1M-25</t>
-  </si>
-  <si>
-    <t>P-1M-30Z1-30Z2</t>
-  </si>
-  <si>
-    <t>P-1L-3</t>
-  </si>
-  <si>
-    <t>A-PM2-2</t>
-  </si>
-  <si>
-    <t>P-LS8-8B</t>
-  </si>
-  <si>
-    <t>L-L1-2</t>
-  </si>
-  <si>
-    <t>L-L1-6</t>
-  </si>
-  <si>
-    <t>P-P3-2</t>
-  </si>
-  <si>
-    <t>P-P3-3</t>
-  </si>
-  <si>
-    <t>P-P3-5</t>
-  </si>
-  <si>
-    <t>P-P3-6</t>
-  </si>
-  <si>
-    <t>A-IG2-3</t>
-  </si>
-  <si>
-    <t>A-IG5-4</t>
-  </si>
-  <si>
-    <t>A-IG5-5</t>
-  </si>
-  <si>
-    <t>A-IG6-12</t>
-  </si>
-  <si>
-    <t>A-IG2-4</t>
-  </si>
-  <si>
-    <t>A-IG1-5</t>
-  </si>
-  <si>
-    <t>A-IG1-6</t>
-  </si>
-  <si>
-    <t>A-IG4-1</t>
-  </si>
-  <si>
-    <t>A-IG4-2</t>
-  </si>
-  <si>
-    <t>A-IG4-3</t>
-  </si>
-  <si>
-    <t>A-IG6-2</t>
-  </si>
-  <si>
-    <t>A-IG6-3</t>
-  </si>
-  <si>
-    <t>P-IGG-7C</t>
-  </si>
-  <si>
-    <t>A-IG6-4</t>
-  </si>
-  <si>
-    <t>A-IG1-7</t>
-  </si>
-  <si>
-    <t>A-IG6-5</t>
-  </si>
-  <si>
-    <t>A-IG6-6</t>
-  </si>
-  <si>
-    <t>A-IG6-7</t>
-  </si>
-  <si>
-    <t>A-IG7-4</t>
-  </si>
-  <si>
-    <t>A-IG7-5</t>
-  </si>
-  <si>
-    <t>A-IG1-8</t>
-  </si>
-  <si>
-    <t>P-LS8-14</t>
-  </si>
-  <si>
-    <t>P-A1-12A</t>
-  </si>
-  <si>
-    <t>A-ME-90A</t>
-  </si>
-  <si>
-    <t>F-FD-406</t>
-  </si>
-  <si>
-    <t>F-FD-407</t>
-  </si>
-  <si>
-    <t>P-A1-10</t>
-  </si>
-  <si>
-    <t>P-A1-12</t>
-  </si>
-  <si>
-    <t>P-A1-3</t>
-  </si>
-  <si>
-    <t>L-L1-2A</t>
-  </si>
-  <si>
-    <t>L-E1-3B1</t>
-  </si>
-  <si>
-    <t>L-L1-1</t>
-  </si>
-  <si>
-    <t>L-L1-3B</t>
-  </si>
-  <si>
-    <t>L-L1-3C</t>
-  </si>
-  <si>
-    <t>L-L1-3D</t>
-  </si>
-  <si>
-    <t>F-FD-409</t>
-  </si>
-  <si>
-    <t>F-FD-410</t>
-  </si>
-  <si>
-    <t>P-A1-13A</t>
-  </si>
-  <si>
-    <t>P-ACP-1</t>
-  </si>
-  <si>
-    <t>P-ACP-1A</t>
-  </si>
-  <si>
-    <t>P-ACP-1B</t>
-  </si>
-  <si>
-    <t>P-ACP-1C</t>
-  </si>
-  <si>
-    <t>P-ACP-2</t>
-  </si>
-  <si>
-    <t>P-ACP-2A</t>
-  </si>
-  <si>
-    <t>P-ACP-2B</t>
-  </si>
-  <si>
-    <t>P-ACP-2C</t>
-  </si>
-  <si>
-    <t>P-A1-12B</t>
-  </si>
-  <si>
-    <t>P-A1-12C</t>
-  </si>
-  <si>
-    <t>F-LS-4</t>
-  </si>
-  <si>
-    <t>P-P2-1</t>
-  </si>
-  <si>
-    <t>P-P2-4</t>
-  </si>
-  <si>
-    <t>P-P2-5</t>
-  </si>
-  <si>
-    <t>P-P2-2</t>
-  </si>
-  <si>
-    <t>P-P2-3</t>
-  </si>
-  <si>
-    <t>L-L1-3</t>
-  </si>
-  <si>
-    <t>P-IGG-1A</t>
-  </si>
-  <si>
-    <t>P-IGG-1A1</t>
-  </si>
-  <si>
-    <t>P-IGG-1B</t>
-  </si>
-  <si>
-    <t>P-IGG-2A</t>
-  </si>
-  <si>
-    <t>P-IGG-2A1</t>
-  </si>
-  <si>
-    <t>P-A1-12D</t>
-  </si>
-  <si>
-    <t>P-IGG-2B</t>
-  </si>
-  <si>
-    <t>A-IG1-3</t>
-  </si>
-  <si>
-    <t>A-IG1-4</t>
-  </si>
-  <si>
-    <t>A-IG3-1</t>
-  </si>
-  <si>
-    <t>A-IG3-2</t>
-  </si>
-  <si>
-    <t>A-IG6-10</t>
-  </si>
-  <si>
-    <t>A-IG6-11</t>
-  </si>
-  <si>
-    <t>A-IG6-14</t>
-  </si>
-  <si>
-    <t>A-IG6-15</t>
-  </si>
-  <si>
-    <t>A-IG7-1</t>
-  </si>
-  <si>
-    <t>A-IG7-2</t>
-  </si>
-  <si>
-    <t>A-IG7-6</t>
-  </si>
-  <si>
-    <t>F-LS-5</t>
-  </si>
-  <si>
-    <t>A-IG1-7A</t>
-  </si>
-  <si>
-    <t>P-A1-5</t>
-  </si>
-  <si>
-    <t>P-IGG-7</t>
-  </si>
-  <si>
-    <t>P-IGG-7A</t>
-  </si>
-  <si>
-    <t>P-IGG-7B</t>
-  </si>
-  <si>
-    <t>L-L1-2G</t>
-  </si>
-  <si>
-    <t>L-L1-3A</t>
-  </si>
-  <si>
-    <t>F-FD-408</t>
-  </si>
-  <si>
-    <t>F-FD-413</t>
-  </si>
-  <si>
-    <t>F-FD-414</t>
-  </si>
-  <si>
-    <t>F-FD-411</t>
-  </si>
-  <si>
-    <t>F-FD-412</t>
-  </si>
-  <si>
-    <t>L-E1-3E</t>
-  </si>
-  <si>
-    <t>P-DC1-2C</t>
-  </si>
-  <si>
-    <t>F-FD-415</t>
-  </si>
-  <si>
-    <t>L-E1-3C</t>
-  </si>
-  <si>
-    <t>L-E1-3D</t>
-  </si>
-  <si>
-    <t>L-L1-3E</t>
-  </si>
-  <si>
-    <t>P-A1-13</t>
-  </si>
-  <si>
-    <t>P-IGG-4</t>
-  </si>
-  <si>
-    <t>A-IG3-3</t>
-  </si>
-  <si>
-    <t>A-IG3-4</t>
-  </si>
-  <si>
-    <t>P-IGG-5</t>
-  </si>
-  <si>
-    <t>P-IGG-6</t>
-  </si>
-  <si>
-    <t>A-NGS-2</t>
-  </si>
-  <si>
-    <t>A-NGS-6</t>
-  </si>
-  <si>
-    <t>P-NG-0106</t>
-  </si>
-  <si>
-    <t>P-BWTS-1</t>
-  </si>
-  <si>
-    <t>P-BWTS-1A</t>
-  </si>
-  <si>
-    <t>P-BWTS-1B</t>
-  </si>
-  <si>
-    <t>P-BWTS-1C</t>
-  </si>
-  <si>
-    <t>P-BWTS-2</t>
-  </si>
-  <si>
-    <t>P-BWTS-2A</t>
-  </si>
-  <si>
-    <t>P-BWTS-2B</t>
-  </si>
-  <si>
-    <t>P-BWTS-2C</t>
-  </si>
-  <si>
-    <t>P-BWTS-M1</t>
-  </si>
-  <si>
-    <t>P-BWTS-M2</t>
-  </si>
-  <si>
-    <t>A-BWT1-3</t>
-  </si>
-  <si>
-    <t>A-BWT1-4</t>
-  </si>
-  <si>
-    <t>A-BWT2-3</t>
-  </si>
-  <si>
-    <t>A-BWT2-4</t>
-  </si>
-  <si>
-    <t>A-BWT3-1</t>
-  </si>
-  <si>
-    <t>A-BWT3-2</t>
-  </si>
-  <si>
-    <t>A-CM1-12</t>
-  </si>
-  <si>
-    <t>A-IG1-1</t>
-  </si>
-  <si>
-    <t>A-IG1-9</t>
-  </si>
-  <si>
-    <t>A-IG5-6</t>
-  </si>
-  <si>
-    <t>A-IG5-7</t>
-  </si>
-  <si>
-    <t>A-IG7-3</t>
-  </si>
-  <si>
-    <t>C-GP-10A</t>
-  </si>
-  <si>
-    <t>L-L1-2E</t>
-  </si>
-  <si>
-    <t>L-L1-2F</t>
-  </si>
-  <si>
-    <t>L-L1-2C</t>
-  </si>
-  <si>
-    <t>L-L1-2D</t>
-  </si>
-  <si>
-    <t>L-E1-3G</t>
-  </si>
-  <si>
-    <t>F-FD-404</t>
-  </si>
-  <si>
-    <t>L-L1-2B</t>
-  </si>
-  <si>
-    <t>F-FD-405</t>
-  </si>
-  <si>
-    <t>L-E1-3H</t>
-  </si>
-  <si>
-    <t>L-E1-3B</t>
-  </si>
-  <si>
-    <t>L-L1-6A</t>
-  </si>
-  <si>
     <t>Node</t>
   </si>
   <si>
-    <t xml:space="preserve">E3AP017D E3AP2297 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2115 E3AS2114 E3AS2113 EFAS017A EFAS2207 EFAS2343 EFJBJ017 EFFS2076 EFFS2075 EFFS2074 EFFS2073 EFFS2072 EFFS2071 EFFS2070 EFJBJ045 EFFS2069 EFFS2079 EFFS2080  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP017D E3AP2297 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2115 E3AS2114 E3AS2113 EFAS017A EFAS2207 EFAS2343 EFJBJ017 EFFS2076 EFFS2085 EFFS2086 EFFS019A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECAP0005 ECAP0013 E2AP014B E2AP0084 E2AP0083 E2AP0082 E2AP0081 E2AP0085 E2AP0156 E2AP0155 E2AP0154 E2AP0153 E2AP0238 E2AP0237 E3AP016H E3AP2236 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2115 E3AS2114 E3AS2113 EFAS017A EFAS2207 EFAS2220 EFAS2221 EFAS2222 EFAS2230 EFAS2242 EFAS2258 EFAS2269 EFAS2270 EFAS013C  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP013F E3AP2262 E3AP2261 E3AP2260 E3AP2248 E3AP2247 E3AP2294 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2115 E3AS2114 E3AS2113 EFAS017A EFAS2207 EFAS2343 EFJBJ017 EFFS2076 EFFS2075 EFFS2074 EFFS2073 EFFS2072 EFFS021B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP013C E3AP2261 E3AP2260 E3AP2248 E3AP2247 E3AP2294 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2115 E3AS2114 E3AS2113 EFAS017A EFAS2207 EFAS2343 EFJBJ017 EFFS2076 EFFS2085 EFFS2086 EFFS019A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2115 E3AS2114 E3AS2113 EFAS017A EFAS2207 EFAS2343 EFJBJ017 EFFS2076 EFFS2075 EFFS020A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP018A E3AP2189 E3AP2193 E3AP2194 E3AP2208 E3AP2209 E3AP2297 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS015D E2AS0227  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP016B E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2056 E3FS020C E2FS0189  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS022A E3FS2047 E3FS2048 E3FS2049 E3FS2050 E3FS2051 E3FS2052 E3FS2053 E3FS2054 E3FS2059 E3JBJ022 E3AS2109 E3AS2118 E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2125 E3AS2126 E3AS2194 E3AS2127 E3JBJ003 E3AP2219 E3AP2220 E3AP2221 E3AP2215 E3AP2214 E3AP2295 E3AP2296 E3AP2217 E3AP2218 E3AP2238 E3AP2239 E3AP2240 E3AP2232 E3AP015D  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2250 E3AS2151 E3AS2145 E3AS2138 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2010 E3FS2011 E3FS2012 E3FS2013 E3FS2014 E3FS2008 E3FS025A E2FS0006 E2FS0069  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP015D E3AP2232 E3AP2240 E3AP2239 E3AP2238 E3AP2218 E3AP2217 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2023 E3FS2022 E3FS2201 E3FS2020 E3FS025B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS022D E3FS2035 E3FS2030 E3FS2031 E3FS2032 E3FS2033 E3FS2034 E3FS2050 E3FS2051 E3FS2052 E3FS2053 E3FS2054 E3FS2059 E3JBJ022 E3AS2109 E3AS2118 E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2125 E3AS2126 E3AS2194 E3AS2127 E3JBJ003 E3AP2219 E3AP2220 E3AP2221 E3AP2215 E3AP2214 E3AP2295 E3AP2296 E3AP2217 E3AP2218 E3AP2238 E3AP2239 E3AP2240 E3AP2232 E3AP015D  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP018A E3AP2189 E3AP2193 E3AP2194 E3AP2208 E3AP2209 E3AP2297 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2034 E3FS2033 E3FS2032 E3FS2031 E3FS2030 E3FS2035 E3FS022D  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP014D E3AP2247 E3AP2294 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2034 E3FS2033 E3FS2032 E3FS2031 E3FS2030 E3FS2035 E3FS022D  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP017D E3AP2297 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS016A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP017D E3AP2297 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2135 E3AS2136 E3AS2137 E3AS2156 E3AS2157 E3AS2158 E3AS2159 E3AS2160 E3AS2173 E3AS012B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP017D E3AP2297 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2123 E3AS2133 E3AS2132 E3AS2131 E3AS2130 E3AS016B E2AS0215  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP017D E3AP2297 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2123 E3AS2133 E3AS2132 E3AS2131 E3AS2130 E3AS2129 E3AS2128 E3AS2122 E3AS2112 E3AS2108 E3AS019A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP018A E3AP2189 E3AP2193 E3AP2194 E3AP2208 E3AP2209 E3AP2297 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2138 E3AS2145 E3AS2151 E3AS2250  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AP015D E3AP2232 E3AP2240 E3AP2239 E3AP2238 E3AP2218 E3AP2217 E3AP2296 E3AP2295 E3AP2214 E3AP2215 E3AP2221 E3AP2220 E3AP2219 E3JBJ003 E3AS2127 E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2123 E3AS2133 E3AS2132 E3AS2131 E3AS2130 E3AS2129 E3AS2140 E3AS2139 E3AS2287  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2FS020E AUFS2992 E2FS0013 E2FS0014 E2FS0015 E2FS0095 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0118 E2AS0072 E2AS0123 E2AS0122 E2AS0121 E3AS016D E3AS2125 E3AS2126 E3AS2194 E3AS2127 E3AS2135 E3AS2136 E3AS2137 E3AS2156 E3AS2157 E3AS2158 E3AS2159 E3AS2160 E3AS2173 E3AS012B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0227 E3AS015D E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2115 E3AS2114  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0227 E3AS015D E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS016A E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2034 E3FS2033 E3FS2032 E3FS2031 E3FS2030 E3FS2029 E3FS2028 E3FS2019 E3FS2018 E3FS2009 E3FS024A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS016A E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2034 E3FS2033 E3FS2032 E3FS2031 E3FS2030 E3FS2029 E3FS2028 E3FS2027 E3FS022C  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS016A E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2023 E3FS2022 E3FS2201 E3FS024H  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS016A E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2010 E3FS2011 E3FS2012 E3FS2013 E3FS024C  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2123 E3AS2133 E3AS2132 E3AS2131 E3AS2130 E3AS016B E2AS0215  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2125 E3AS016D E2AS0121 E2AS0122 E2AS0123 E2AS0072 E2AS0118 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2JBJ013 E2AS0039 E2AS0038 E2AS0037 E2AS0036 E2AS0035 E2AS0043 E2AS0034 E2AS013A ECAS0044  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2125 E3AS016D E2AS0121 E2AS0122 E2AS0123 E2AS0073 E2AS0124 E2AS0233  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2123 E3AS2133 E3AS2132 E3AS2131 E3AS016C E2AS0216  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2123 E3AS2133 E3AS016E E2AS0219  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2123 E3AS2133 E3AS2132 E3AS017B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS019A E3AS2108 E3AS2112 E3AS2122 E3AS2128 E3AS2129 E3AS2130 E3AS2131 E3AS2132 E3AS2133 E3AS2123 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS018A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2123 E3AS2133 E3AS2132 E3AS2131 E3AS2130 E3AS2129 E3AS2128 E3AS2122 E3AS2112 E3AS019B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2125 E3AS016D E2AS0121 E2AS0122 E2AS0123 E2AS0073 E2AS0124 E2AS0233 E2AS0264  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2125 E3AS016D E2AS0121 E2AS0122 E2AS0123 E2AS0073 E2AS0124 E2AS0233 E2AS0264 E2AS0220 E2AS0222 E2AS0221  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2FS020E AUFS2992 E2FS0013 E2FS0014 E2FS0015 E2FS0095 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0118 E2AS0072 E2AS0123 E2AS0122 E2AS0121 E3AS016D E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS021C  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2FS0186 E3FS023A E3FS2015 E3FS2012 E3FS2011 E3FS2010 E3FS2046 E3FS2047 E3FS2048 E3FS2049 E3FS2050 E3FS2051 E3FS2052 E3FS2053 E3FS2054 E3FS2059 E3JBJ022 E3AS2109 E3AS2118 E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2125 E3AS016D  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2113 E3AS2114 E3AS2115 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2057  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2055 E3FS2058 E3JBJ020 E3AS2110 E3AS2112 E3AS2122 E3AS2128 E3AS2129 E3AS2130 E3AS2131 E3AS2132 E3AS2133 E3AS2123 E3AS2124 E3AS2121 E3AS2115  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2115 E3AS2121 E3AS2124 E3AS2123 E3AS2133 E3AS2132 E3AS2131 E3AS2130 E3AS2129 E3AS2140  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2250 E3AS2151 E3AS2145 E3AS2138 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS018A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2250 E3AS2151 E3AS2145 E3AS2138 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2010 E3FS2011 E3FS2012 E3FS2015 E3FS023A E2FS0186  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2250 E3AS2151 E3AS2145 E3AS2138 E3AS2125 E3AS2124 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS022A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2114 E3AS2115 E3AS2121 E3AS2120 E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2023 E3FS2024  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2057 E3FS2059 E3JBJ022 E3AS2109 E3AS2118 E3AS2119 E3AS2120 E3AS2121 E3AS2124 E3AS2125 E3AS2138  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0227 E3AS015D E3AS2194 E3AS2126 E3AS2125 E3AS2124 E3AS2121 E3AS2115 E3AS2114 E3AS2113 EFAS017A EFAS2207 EFAS2343 EFJBJ017 EFFS2076 EFFS2075 EFFS2074  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2126 E3AS2125 E3AS2138 E3AS2145 E3AS2146 E3AS2147 E3AS2148 E3AS2149 E3AS2150 E3AS2169 E3AS2170 E3AS2172 E3AS2175 E3AS2176 E3AS2177 E3AS0007  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS0007 E3AS2177  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS0007 E3AS2177 E3AS2176 E3AS0006  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2168 E3AS2171 E3AS2170 E3AS2172 E3AS011A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS011A E3AS2172 E3AS2170 E3AS2171 E3AS2159 E3AS2158  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS013C E3AS2153 E3AS2155 E3AS2147 E3AS2148 E3AS2149 E3AS2150 E3AS2169 E3AS012A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS012B E3AS2173 E3AS2160 E3AS2159 E3AS2158 E3AS2157 E3AS2156 E3AS2137 E3AS2136 E3AS2135 E3AS2144 E3AS014A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS012B E3AS2173 E3AS2160 E3AS2159 E3AS2158 E3AS2157 E3AS2156 E3AS2137 E3AS2136 E3AS2135 E3AS2144 E3JBJ004 E3AP015K  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS012C E3AS2174 E3AS2173 E3AS2160 E3AS2159 E3AS2158 E3AS2157 E3AS2163 E3AS2164 E3AS2162 E3AS013A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS012C E3AS2174 E3AS2173 E3AS2160 E3AS2159 E3AS2158 E3AS2157 E3AS2163 E3AS2164 E3JBJ005 E3AP2252 E3AP014F  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0217 E2AS0218 E2AS0121 E3AS016D E3AS2125 E3AS2138 E3AS2145 E3AS2146 E3AS2147 E3AS2155 E3AS2153 E3AS2154 E3AS014E E2AS0268  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0268 E3AS014E E3AS2154 E3AS014C  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0224 E3AS015A E3AS2142 E3AS2143 E3AS2138 E3AS2125 E3AS2124 E3AS2123 E3AS2133 E3AS2132 E3AS2131 E3AS2130 E3AS2129 E3AS2128 E3AS2122 E3AS2112 E3AS2110 E3AS2111 E3AS018B E2AS0214  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0265 E2AS0127 E3AS015C E3AS2141 E3AS2142 E3AS2143 E3AS2138 E3AS2145 E3AS2146 E3AS2147 E3AS2155 E3AS013B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0265 E2AS0127 E3AS015C E3AS2141 E3AS2142 E3AS2143 E3AS2138 E3AS2145 E3AS2151 E3AS014B E2AS0229  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0265 E2AS0127 E3AS015C E3AS2141 E3AS2142 E3AS2143 E3AS2138 E3AS2145 E3AS2146 E3AS2147 E3AS2155 E3AS014D  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0265 E2AS0127 E3AS015C E3AS2141 E3AS2142 E3AS2143 E3AS2138 E3AS2145 E3AS2146 E3AS2147 E3AS2155 E3AS2153 E3AS2154 E3AS014E E2AS0268 E2AS0230  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0265 E2AS0127 E3AS015C E3AS2141 E3AS2142 E3AS2143 E3AS015B E2AS0225 E2AS0223  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0227 E3AS015D E3AS2194 E3AS2126  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0215 E3AS016B E3AS2130 E3AS2129 E3AS2128 E3AS2122 E3AS2117 E3AS2116 E3AS017C  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0216 E3AS016C E3AS2131 E3AS2130 E3AS2129 E3AS2128 E3AS2122 E3AS2117 E3AS017D  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS014C E3AS2154 E3AS2153 E3AS2155 E3AS2147 E3AS2146 E3AS2145 E3AS2138 E3AS2125 E3AS016D E2AS0121 E2AS0122 E2AS0129 E2AS0130 E2AS0126 E2AS0272 E2AS0142 E2AS0143 E2JBJ014 E2AP0176 E2AP0091 E2AP0175 E2AP0244  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2044 E3FS021A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2056 E3FS020C E2FS0189  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS019A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2010 E3FS2011 E3FS2012 E3FS2015 E3FS2021  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2034 E3FS2033 E3FS2040 E3FS2041 E3FS021D  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2AS0214 E3AS018B E3AS2111 E3AS2110 E3JBJ020 E3FS2058 E3FS2041 E3FS2040 E3FS2033 E3FS2034 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2010 E3FS2011 E3FS2012 E3FS2015 E3FS023A E2FS0186  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS019B E3AS2112 E3AS2108 E3AS019A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2250 E3AS2151 E3AS2145 E3AS2138 E3AS2125 E3AS016D E2AS0121 E2AS0122 E2AS0129 E2AS0130 E2AS0126 E2AS0272 E2AS0142 E2AS0143 E2JBJ014 E2AP0176 E2AP0091 E2AP0175 E2AP0244  </t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">E3FS2037 E3FS2038 E3FS2039 E3FS2040 E3FS2041 E3FS2058 E3JBJ020 E3AS2110 E3AS2111  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2126 E3AS2125 E3AS2124 E3AS2123 E3AS2133 E3AS2132 E3AS2131 E3AS2130 E3AS2129 E3AS2140 E3AS2139  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2140 E3AS2129 E3AS2130 E3AS2131 E3AS2132 E3AS2133 E3AS2123 E3AS2124 E3AS2125 E3AS2138 E3AS2145 E3AS2146 E3AS2147 E3AS2148 E3AS2149 E3AS2150 E3AS2169 E3AS2170 E3AS2171 E3AS2168  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2137 E3AS2136 E3AS2152  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2152 E3AS2165  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2158 E3AS2157 E3AS2156 E3AS2161  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2161 E3AS2156 E3AS2137  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2161 E3AS2156 E3AS2137 E3AS2136 E3AS2152 E3AS2165  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2165 E3AS2152 E3AS2136 E3AS2137 E3AS2156 E3AS2161  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2165 E3AS2166  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2138 E3AS2145 E3AS2146 E3AS2147 E3AS2148 E3AS2149 E3AS2150 E3AS2169 E3AS2170 E3AS2171 E3AS2168  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2168 E3AS2171 E3AS2159 E3AS2158 E3AS2157 E3AS2156 E3AS2161  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS0006 E3AS2176 E3AS2175  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2250 E3AS2151 E3AS2145 E3AS2146 E3AS2147 E3AS2155 E3AS2153 E3AS013C  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS020B E3FS020A E2FS2222  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2FS0189 E3FS020C E3FS2056 E3FS2059 E3FS2054 E3FS2053 E3FS021B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS022A E3FS2047 E3FS2046 E3FS2023 E3FS2022 E3FS2201 E3FS2020 E3FS024G E2FS0179  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS024H E3FS2201 E3FS2022 E3FS2023 E3FS2046 E3FS2047 E3FS022A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS024C E3FS2013 E3FS2012 E3FS2011 E3FS2010 E3FS2046 E3FS2047 E3FS022A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS024A E3FS2009 E3FS2018 E3FS2019 E3FS2028 E3FS2027 E3FS2026 E3FS022B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS022C E3FS2027 E3FS2028 E3FS2019 E3FS2016 E3FS024E  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS022C E3FS2027 E3FS2028 E3FS2019 E3FS2016 E3FS2017 E3FS024F  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS022D E3FS2035 E3FS2030 E3FS2029 E3FS2028 E3FS2019 E3FS2018 E3FS2009 E3FS024A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS022D E3FS2035 E3FS2030 E3FS2031 E3FS2032 E3FS2033 E3FS2034  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS022D E3FS2035 E3FS2030 E3FS2029 E3FS2028 E3FS2019 E3FS2016 E3FS2017 E3FS024B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS022F E3FS5001 E3FS023B E2FS5019 E2FS5017 E2FS5016 E2FS5014 E2FS5012 E2FS5007 E2JBJ019 E2FP5001 E2FP5013 E2FP022E E2FP022E AUFP5010 AUFP5001 AUFP5006 AUFP5004 AUFP025B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUFP024A AUFP2184 AUFP2185 AUFP2181 AUFP2180 AUFP2179 AUFP2174 AUFP2175 AUFP2176 AUFP2160 AUFP2159 AUFP2158 AUFP2157 E2FP024C E2FP024C E2FP0022 E2JBJ017 E2FS0002 E2FS0247 E2FS0184 E2FS0006 E3FS025A E3FS2008 E3FS2014 E3FS2013 E3FS2012 E3FS2011 E3FS2010 E3FS2046 E3FS2047 E3FS2048 E3FS2049 E3FS2050 E3FS2051 E3FS2052 E3FS2053 E3FS2054 E3FS2059 E3JBJ022 E3AS2109 E3AS2118 E3AS2119 E3AS018A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2010 E3FS2011 E3FS2012 E3FS2013 E3FS2014 E3FS2008 E3FS025A E2FS0006 E2FS0184 E2FS0247 E2FS0002 E2JBJ017 E2FP0022 E2FP024C E2FP024C AUFP2157 AUFP2158 AUFP2159 AUFP2160 AUFP2176 AUFP2175 AUFP2174 AUFP2179 AUFP2180 AUFP2181 AUFP2186 AUFP2187 AUFP2322 AUFP2321 AUFP2320 AUFP025D  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2010 E3FS2011 E3FS2012 E3FS2013 E3FS2014 E3FS2008 E3FS025A E2FS0006 E2FS0184 E2FS0247 E2FS0002 E2JBJ017 E2FP0022 E2FP024C E2FP024C AUFP2157 AUFP2158 AUFP2159 AUFP2160 AUFP2176 AUFP2175 AUFP2174 AUFP2179 AUFP2180 AUFP2181 AUFP2185 AUFP2184 AUFP024A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2010 E3FS2011 E3FS2012 E3FS2013 E3FS2014 E3FS2008 E3FS025A E2FS0006 E2FS0184 E2FS0247 E2FS0002 E2JBJ017 E2FP0022 E2FP0023 E2FP0020 E2FP0101 E2FP0102 E2FP2002 E2FP2001 E2FP0066 E2FP0017 E2FP0062  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS018A E3AS2119 E3AS2118 E3AS2109 E3JBJ022 E3FS2059 E3FS2054 E3FS2053 E3FS2052 E3FS2051 E3FS2050 E3FS2049 E3FS2048 E3FS2047 E3FS2046 E3FS2010 E3FS2011 E3FS2012 E3FS2013 E3FS2014 E3FS2008 E3FS025A E2FS0006 E2FS0184 E2FS0247 E2FS0002 E2JBJ017 E2FP0022 E2FP0023 E2FP0020 E2FP0101 E2FP0102 E2FP2002 E2FP2001 E2FP0066 E2FP0017 E2FP0192  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDFS2091 CDFS2076 E2FS021D E2FS021D E2FS0009 E2FS0008 E2FS0007 E2FS0004 E2FS0003 E2FS0001 E2FS0002 E2FS0247 E2FS0184 E2FS0006 E3FS025A E3FS2008 E3FS2014 E3FS2013 E3FS2012 E3FS2011 E3FS2010 E3FS2046 E3FS2047 E3FS2048 E3FS2049 E3FS2050 E3FS2034 E3FS2033 E3FS2032 E3FS2031 E3FS2030 E3FS2035 E3FS022D  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2002 E3FS2001  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2001 E3FS2009 E3FS2018 E3FS2019 E3FS2028 E3FS2029 E3FS2030 E3FS2031 E3FS2032 E3FS2033 E3FS2040 E3FS2039 E3FS2038 E3FS2037  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2006 E3FS2005 E3FS2004 E3FS2003  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2003 E3FS2002  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2021 E3FS2015 E3FS2012 E3FS2011 E3FS2010 E3FS2046 E3FS2047 E3FS2048 E3FS2049 E3FS2050 E3FS2034 E3FS2282  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2024 E3FS2023 E3FS2046 E3FS2047 E3FS2048 E3FS2049 E3FS2050 E3FS2034 E3FS2033 E3FS2032 E3FS2031 E3FS2030 E3FS2029 E3FS2028 E3FS2019 E3FS2018 E3FS2009 E3FS2001  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2024 E3FS2023 E3FS2046 E3FS2010 E3FS2011 E3FS2012 E3FS2013 E3FS2014 E3FS2008 E3FS2007 E3FS2006  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2001 E3FS2009 E3FS2018 E3FS2019 E3FS2028 E3FS2029 E3FS2030 E3FS2031 E3FS2032 E3FS2033 E3FS2040 E3FS2041 E3FS2058 E3FS2055  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2282 E3FS2034 E3FS2033 E3FS2040 E3FS2041 E3FS2058 E3FS2055  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3FS2021 E3FS2015 E3FS2012 E3FS2011 E3FS2010 E3FS2046 E3FS2047 E3FS2048 E3FS2049 E3FS2050 E3FS2051 E3FS2052 E3FS2053 E3FS2054 E3FS2059 E3FS2057  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3AS2118 E3JBJ023  </t>
+    <t>P-1L-10Z1</t>
+  </si>
+  <si>
+    <t>P-1L-10Z2</t>
+  </si>
+  <si>
+    <t>P-1L-11</t>
+  </si>
+  <si>
+    <t>P-1L-14</t>
+  </si>
+  <si>
+    <t>P-1L-16</t>
+  </si>
+  <si>
+    <t>P-1L-5</t>
+  </si>
+  <si>
+    <t>P-1L-5A</t>
+  </si>
+  <si>
+    <t>P-1L-5B</t>
+  </si>
+  <si>
+    <t>P-1L-5B1</t>
+  </si>
+  <si>
+    <t>P-1L-5C</t>
+  </si>
+  <si>
+    <t>P-1L-5D</t>
+  </si>
+  <si>
+    <t>P-1L-5E</t>
+  </si>
+  <si>
+    <t>P-1L-5F</t>
+  </si>
+  <si>
+    <t>P-1L-5H</t>
+  </si>
+  <si>
+    <t>P-1L-5J</t>
+  </si>
+  <si>
+    <t>P-1L-6</t>
+  </si>
+  <si>
+    <t>P-1L-7</t>
+  </si>
+  <si>
+    <t>P-1M-1</t>
+  </si>
+  <si>
+    <t>P-1M-17</t>
+  </si>
+  <si>
+    <t>P-1M-18</t>
+  </si>
+  <si>
+    <t>P-1M-19Z1</t>
+  </si>
+  <si>
+    <t>P-1M-19Z10</t>
+  </si>
+  <si>
+    <t>P-1M-19Z11</t>
+  </si>
+  <si>
+    <t>P-1M-19Z12</t>
+  </si>
+  <si>
+    <t>P-1M-19Z13</t>
+  </si>
+  <si>
+    <t>P-1M-19Z14</t>
+  </si>
+  <si>
+    <t>P-1M-19Z15</t>
+  </si>
+  <si>
+    <t>P-1M-19Z16</t>
+  </si>
+  <si>
+    <t>P-1M-19Z2</t>
+  </si>
+  <si>
+    <t>P-1M-19Z3</t>
+  </si>
+  <si>
+    <t>P-1M-19Z4</t>
+  </si>
+  <si>
+    <t>P-1M-19Z5</t>
+  </si>
+  <si>
+    <t>P-1M-19Z6</t>
+  </si>
+  <si>
+    <t>P-1M-19Z7</t>
+  </si>
+  <si>
+    <t>P-1M-19Z8</t>
+  </si>
+  <si>
+    <t>P-1M-19Z9</t>
+  </si>
+  <si>
+    <t>P-1M-20</t>
+  </si>
+  <si>
+    <t>P-1M-27</t>
+  </si>
+  <si>
+    <t>P-1M-28</t>
+  </si>
+  <si>
+    <t>P-1M-7</t>
+  </si>
+  <si>
+    <t>P-1M-7AZ1</t>
+  </si>
+  <si>
+    <t>P-1M-7AZ2</t>
+  </si>
+  <si>
+    <t>P-2L-8</t>
+  </si>
+  <si>
+    <t>P-2M-1</t>
+  </si>
+  <si>
+    <t>P-2M-16</t>
+  </si>
+  <si>
+    <t>P-2M-17</t>
+  </si>
+  <si>
+    <t>P-2M-18Z1</t>
+  </si>
+  <si>
+    <t>P-2M-18Z10</t>
+  </si>
+  <si>
+    <t>P-2M-18Z11</t>
+  </si>
+  <si>
+    <t>P-2M-18Z12</t>
+  </si>
+  <si>
+    <t>P-2M-18Z13</t>
+  </si>
+  <si>
+    <t>P-2M-18Z14</t>
+  </si>
+  <si>
+    <t>P-2M-18Z15</t>
+  </si>
+  <si>
+    <t>P-2M-18Z16</t>
+  </si>
+  <si>
+    <t>P-2M-18Z2</t>
+  </si>
+  <si>
+    <t>P-2M-18Z3</t>
+  </si>
+  <si>
+    <t>P-2M-18Z4</t>
+  </si>
+  <si>
+    <t>P-2M-18Z5</t>
+  </si>
+  <si>
+    <t>P-2M-18Z6</t>
+  </si>
+  <si>
+    <t>P-2M-18Z7</t>
+  </si>
+  <si>
+    <t>P-2M-18Z8</t>
+  </si>
+  <si>
+    <t>P-2M-18Z9</t>
+  </si>
+  <si>
+    <t>P-2M-19</t>
+  </si>
+  <si>
+    <t>P-2M-25</t>
+  </si>
+  <si>
+    <t>P-2M-6</t>
+  </si>
+  <si>
+    <t>P-2M-6AZ1</t>
+  </si>
+  <si>
+    <t>P-2M-6AZ2</t>
+  </si>
+  <si>
+    <t>C-AP-1A</t>
+  </si>
+  <si>
+    <t>C-AT-607</t>
+  </si>
+  <si>
+    <t>A-BC1-1</t>
+  </si>
+  <si>
+    <t>A-BC1-8</t>
+  </si>
+  <si>
+    <t>A-BC2-1</t>
+  </si>
+  <si>
+    <t>A-BC2-3</t>
+  </si>
+  <si>
+    <t>A-BC2-4</t>
+  </si>
+  <si>
+    <t>A-BC2-6</t>
+  </si>
+  <si>
+    <t>A-BC3-1</t>
+  </si>
+  <si>
+    <t>A-BC3-2</t>
+  </si>
+  <si>
+    <t>A-BC3-3</t>
+  </si>
+  <si>
+    <t>A-BC4-4</t>
+  </si>
+  <si>
+    <t>A-CM22-PT6514</t>
+  </si>
+  <si>
+    <t>A-CM22-SV1</t>
+  </si>
+  <si>
+    <t>A-CM22-SV2</t>
+  </si>
+  <si>
+    <t>A-CM23-SV3</t>
+  </si>
+  <si>
+    <t>A-CM24-SV4</t>
+  </si>
+  <si>
+    <t>A-CM25-SV5</t>
+  </si>
+  <si>
+    <t>A-CM26-JB121</t>
+  </si>
+  <si>
+    <t>A-CM26-JB122</t>
+  </si>
+  <si>
+    <t>F-CO-11</t>
+  </si>
+  <si>
+    <t>F-CO-14B</t>
+  </si>
+  <si>
+    <t>F-CO-3</t>
+  </si>
+  <si>
+    <t>F-CO-3A</t>
+  </si>
+  <si>
+    <t>F-CO-4</t>
+  </si>
+  <si>
+    <t>F-CO-4A</t>
+  </si>
+  <si>
+    <t>P-DC1-2D</t>
+  </si>
+  <si>
+    <t>P-DC1-2E</t>
+  </si>
+  <si>
+    <t>P-DC1-2F</t>
+  </si>
+  <si>
+    <t>P-DPV-1</t>
+  </si>
+  <si>
+    <t>P-DPV-1A</t>
+  </si>
+  <si>
+    <t>P-DPV-1B</t>
+  </si>
+  <si>
+    <t>P-DPV-2</t>
+  </si>
+  <si>
+    <t>P-DPV-2A</t>
+  </si>
+  <si>
+    <t>P-DPV-2B</t>
+  </si>
+  <si>
+    <t>L-E1-5A</t>
+  </si>
+  <si>
+    <t>L-E1-5A1</t>
+  </si>
+  <si>
+    <t>L-E1-5B</t>
+  </si>
+  <si>
+    <t>L-E1-5C</t>
+  </si>
+  <si>
+    <t>L-E1-6A</t>
+  </si>
+  <si>
+    <t>L-E1-6B</t>
+  </si>
+  <si>
+    <t>L-E1-6C</t>
+  </si>
+  <si>
+    <t>L-E1-6D</t>
+  </si>
+  <si>
+    <t>L-E1-6J</t>
+  </si>
+  <si>
+    <t>L-E1-7A</t>
+  </si>
+  <si>
+    <t>L-E1-7B</t>
+  </si>
+  <si>
+    <t>L-E1-7C</t>
+  </si>
+  <si>
+    <t>L-E1-7C1</t>
+  </si>
+  <si>
+    <t>L-E1-7D</t>
+  </si>
+  <si>
+    <t>L-E2-14</t>
+  </si>
+  <si>
+    <t>L-E2-14C</t>
+  </si>
+  <si>
+    <t>L-E2-14D</t>
+  </si>
+  <si>
+    <t>L-E2-24B</t>
+  </si>
+  <si>
+    <t>L-E2-24C</t>
+  </si>
+  <si>
+    <t>P-EG-2A</t>
+  </si>
+  <si>
+    <t>P-EL-22A</t>
+  </si>
+  <si>
+    <t>P-EL-9K</t>
+  </si>
+  <si>
+    <t>P-ES1-1E</t>
+  </si>
+  <si>
+    <t>P-ES1-1F</t>
+  </si>
+  <si>
+    <t>F-FD-245A</t>
+  </si>
+  <si>
+    <t>F-FD-301</t>
+  </si>
+  <si>
+    <t>F-FD-303</t>
+  </si>
+  <si>
+    <t>F-FD-304</t>
+  </si>
+  <si>
+    <t>F-FD-305</t>
+  </si>
+  <si>
+    <t>F-FD-318</t>
+  </si>
+  <si>
+    <t>F-FD-325</t>
+  </si>
+  <si>
+    <t>F-FD-339</t>
+  </si>
+  <si>
+    <t>F-FD-340</t>
+  </si>
+  <si>
+    <t>F-FD-341</t>
+  </si>
+  <si>
+    <t>F-FD-342</t>
+  </si>
+  <si>
+    <t>F-FD-343</t>
+  </si>
+  <si>
+    <t>F-FD-344</t>
+  </si>
+  <si>
+    <t>F-FD-345</t>
+  </si>
+  <si>
+    <t>F-FD-346</t>
+  </si>
+  <si>
+    <t>F-FD-347</t>
+  </si>
+  <si>
+    <t>F-FD-348</t>
+  </si>
+  <si>
+    <t>F-FD-349</t>
+  </si>
+  <si>
+    <t>F-FD-350</t>
+  </si>
+  <si>
+    <t>F-FD-351</t>
+  </si>
+  <si>
+    <t>F-FD-352</t>
+  </si>
+  <si>
+    <t>F-FO-1</t>
+  </si>
+  <si>
+    <t>F-FO-3</t>
+  </si>
+  <si>
+    <t>F-FO-6</t>
+  </si>
+  <si>
+    <t>F-FS-32</t>
+  </si>
+  <si>
+    <t>F-FS-41</t>
+  </si>
+  <si>
+    <t>F-FS-44</t>
+  </si>
+  <si>
+    <t>F-FS-45</t>
+  </si>
+  <si>
+    <t>A-GD-36</t>
+  </si>
+  <si>
+    <t>A-GD-37</t>
+  </si>
+  <si>
+    <t>A-GD-38</t>
+  </si>
+  <si>
+    <t>C-GP-10B</t>
+  </si>
+  <si>
+    <t>P-GS1-14</t>
+  </si>
+  <si>
+    <t>P-GS1-15</t>
+  </si>
+  <si>
+    <t>C-GY-9A</t>
+  </si>
+  <si>
+    <t>A-IC-1</t>
+  </si>
+  <si>
+    <t>L-L1-8</t>
+  </si>
+  <si>
+    <t>L-L2-5</t>
+  </si>
+  <si>
+    <t>L-L2-5B</t>
+  </si>
+  <si>
+    <t>L-L2-5C</t>
+  </si>
+  <si>
+    <t>L-L2-5D</t>
+  </si>
+  <si>
+    <t>L-L2-5E</t>
+  </si>
+  <si>
+    <t>L-L2-5E1</t>
+  </si>
+  <si>
+    <t>L-L2-5E2</t>
+  </si>
+  <si>
+    <t>L-L2-5E3</t>
+  </si>
+  <si>
+    <t>L-L2-5E4</t>
+  </si>
+  <si>
+    <t>L-L2-5F</t>
+  </si>
+  <si>
+    <t>L-L2-5G</t>
+  </si>
+  <si>
+    <t>L-L2-5H</t>
+  </si>
+  <si>
+    <t>L-L2-5J</t>
+  </si>
+  <si>
+    <t>L-L2-8</t>
+  </si>
+  <si>
+    <t>L-L3-10</t>
+  </si>
+  <si>
+    <t>L-L3-13</t>
+  </si>
+  <si>
+    <t>L-L3-4</t>
+  </si>
+  <si>
+    <t>L-L3-4Q</t>
+  </si>
+  <si>
+    <t>L-L3-9</t>
+  </si>
+  <si>
+    <t>L-L3-9C</t>
+  </si>
+  <si>
+    <t>L-L3-9D</t>
+  </si>
+  <si>
+    <t>F-LF-11A</t>
+  </si>
+  <si>
+    <t>F-LF-11B</t>
+  </si>
+  <si>
+    <t>F-LF-1A</t>
+  </si>
+  <si>
+    <t>F-LF-1B</t>
+  </si>
+  <si>
+    <t>F-LF-2A</t>
+  </si>
+  <si>
+    <t>A-LRV-3</t>
+  </si>
+  <si>
+    <t>P-LS8-6</t>
+  </si>
+  <si>
+    <t>P-LS8-6A</t>
+  </si>
+  <si>
+    <t>P-LS9-1A</t>
+  </si>
+  <si>
+    <t>P-LS9-2</t>
+  </si>
+  <si>
+    <t>P-LS9-2A</t>
+  </si>
+  <si>
+    <t>P-LS9-2B</t>
+  </si>
+  <si>
+    <t>P-LS9-2C</t>
+  </si>
+  <si>
+    <t>P-LS9-2C1</t>
+  </si>
+  <si>
+    <t>P-LS9-2D</t>
+  </si>
+  <si>
+    <t>P-LS9-2E</t>
+  </si>
+  <si>
+    <t>P-LS9-5A</t>
+  </si>
+  <si>
+    <t>P-LS9-6</t>
+  </si>
+  <si>
+    <t>P-LS9-6A</t>
+  </si>
+  <si>
+    <t>P-LS9-6B</t>
+  </si>
+  <si>
+    <t>P-LS9-6C</t>
+  </si>
+  <si>
+    <t>P-LS9-6C1</t>
+  </si>
+  <si>
+    <t>P-LS9-6D</t>
+  </si>
+  <si>
+    <t>P-LS9-6E</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z1</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z10</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z11</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z12</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z13</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z14</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z15</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z16</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z2</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z3</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z4</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z5</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z6</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z7</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z8</t>
+  </si>
+  <si>
+    <t>P-MCC-1Z9</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z1</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z10</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z11</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z12</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z13</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z14</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z15</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z16</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z2</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z3</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z4</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z5</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z6</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z7</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z8</t>
+  </si>
+  <si>
+    <t>P-MCC-2Z9</t>
+  </si>
+  <si>
+    <t>A-ME-161</t>
+  </si>
+  <si>
+    <t>A-ME-162</t>
+  </si>
+  <si>
+    <t>A-ME-163</t>
+  </si>
+  <si>
+    <t>A-ME-164</t>
+  </si>
+  <si>
+    <t>A-ME-165</t>
+  </si>
+  <si>
+    <t>A-ME-166</t>
+  </si>
+  <si>
+    <t>A-ME-167</t>
+  </si>
+  <si>
+    <t>A-ME-168</t>
+  </si>
+  <si>
+    <t>A-ME-178</t>
+  </si>
+  <si>
+    <t>A-ME-179</t>
+  </si>
+  <si>
+    <t>P-MSG-1D</t>
+  </si>
+  <si>
+    <t>L-NL-9A</t>
+  </si>
+  <si>
+    <t>P-P2-6A</t>
+  </si>
+  <si>
+    <t>F-PA-25C</t>
+  </si>
+  <si>
+    <t>F-PA-25D</t>
+  </si>
+  <si>
+    <t>F-PA-P17A</t>
+  </si>
+  <si>
+    <t>F-PA-P17C</t>
+  </si>
+  <si>
+    <t>C-RI-3</t>
+  </si>
+  <si>
+    <t>L-SL-23A</t>
+  </si>
+  <si>
+    <t>C-SP-8</t>
+  </si>
+  <si>
+    <t>A-SR1-10</t>
+  </si>
+  <si>
+    <t>A-SR1-1A</t>
+  </si>
+  <si>
+    <t>A-SR1-6</t>
+  </si>
+  <si>
+    <t>A-SR1-8</t>
+  </si>
+  <si>
+    <t>A-SR-20</t>
+  </si>
+  <si>
+    <t>A-SR3-3</t>
+  </si>
+  <si>
+    <t>A-SR3-4</t>
+  </si>
+  <si>
+    <t>A-SR3-5</t>
+  </si>
+  <si>
+    <t>A-SR3-6</t>
+  </si>
+  <si>
+    <t>A-SR3-7</t>
+  </si>
+  <si>
+    <t>A-SR3-8</t>
+  </si>
+  <si>
+    <t>P-SY-1Z1</t>
+  </si>
+  <si>
+    <t>P-SY-1Z2</t>
+  </si>
+  <si>
+    <t>P-SY-1Z3</t>
+  </si>
+  <si>
+    <t>P-SY-1Z4</t>
+  </si>
+  <si>
+    <t>P-SY-1Z5</t>
+  </si>
+  <si>
+    <t>P-SY-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0233 E2AP0234 E2AP0235 E2APM088 E2APM089 E2AP016A E2APM082 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0117 E2JBJ003 E2FS0094 E2FS0093 E2FS0009 E2FS0008 E2FS021B E2FS021B CDFS2090 CDFS2079 CDFS2092 CDFS2093 CDFS021C CDFS2005 CDFS2006 CDFS0059 CDFS0060 CDFS2010 CDFS021Q CDFS2065  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0233 E2AP0234 E2AP0235 E2APM088 E2APM089 E2AP016A E2APM082 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0117 E2JBJ003 E2FS0094 E2FS0093 E2FS0009 E2FS0008 E2FS021B E2FS021B CDFS2090 CDFS2079 CDFS2092  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0233 E2AP0234 E2AP0235 E2APM088 E2AP0147 E2AP0077 E2AP0078 E2AP0148 E2AP0152 E2JBJ010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0233 E2AP0234 E2AP0235 E2APM088 E2APM089 E2AP016A E2APM082 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0118 E2AS0072 E2AS0074 E2AS0075 E2AS0047 E2AS0046 E2AS0045 E2AS011E ECAS0099  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0233 E2AP0234 E2AP0235 E2APM088 E2APM089 E2APM087 E2AP0245 E2AP0239  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0239 E2AP0245 E2AP0088 E2AP0278  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0172 E2AP0152  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0152 E2JBJ010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0172 E2AP0171 E2AP0170 SGAP2126 SGAP2126 SGAP2076  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0233 E2AP0234 E2AP0235 E2APM088 E2APM089 E2AP016A E2APM082 E2AP0079 E2JBJ009 E2FP0113 E2FP0112 E2FP0111 E2FP0110 E2FP0071 E2FP0070 E2FP0117 E2FP0106 E2FP0031 E2FP023C E2FP023C AUFP2211 AUFP2212 AUFP2209  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0149 E2AP016A E2APM082 E2AP0079 E2JBJ009 E2FP0113 E2FP0112 E2FP0111 E2FP0110 E2FP0071 E2FP0070 E2FP0117 E2FP0106 E2FP0104 E2FP0100 E2FP0018 E2FP025D E2FP025D AUFP2144 AUFP2145 AUFP2146  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0149 E2AP016A E2APM082 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0117 E2JBJ003 E2FS0094 E2FS0095 E2FS0015 E2FS0014 E2FS0013 AUFS2992 E2FS020E E2FS020E AUFS2992  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0149 E2AP016A E2APM082 E2AP0079 E2JBJ009 E2FP0113 E2FP0112 E2FP0111 E2FP0110 E2FP0071 E2FP0070 E2FP0117 E2FP0106 E2FP0104 E2FP024B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0149 E2AP016A E2APM082 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2AP0047 E2JBJ006 E2FP0030 E2FP0029 E2FP0026 E2FP0025 E2FP023G  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0149 E2AP016A E2APM082 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0117 E2JBJ003 E2FS0094 E2FS0095 E2FS0015 E2FS0014 E2FS0013 E2FS020B E2FS020B AUFS2088  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0149 E2AP016A E2APM082 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0118 E2AS0072 E2AS0074 E2AS0075 E2AS0047 E2AS0046 E2AS012A ECAS0002 ECAS0072  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0149 E2AP0150 E2AP017A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP017A E2AP0150 E2AP0157 E2APM101 E2AP0235 E2AP0234 E2AP0233  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS2065 CDFS021Q CDFS2010 CDFS2009 CDFS2008 CDFS021E CDFS2095 CDFS2091 CDFS2076 E2FS021D E2FS021D E2FS0009 E2FS0008 E2FS0007 E2FS0004 E2FS0003 E2FS0001 E2FS0002 E2JBJ017 E2FP0022 E2FP0023 E2FP0020 E2FP0021 E2FP0103 E2FP0024 E2FP0105 E2FP0106 E2FP0117 E2FP0070 E2FP0109 E2FP0028 E2FP0207 E2FP023L E2FP023L AUFS2911  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0281 E2APM083 E2AP0089 E2AP0161 E2AP0151 E2AP0079 E2JBJ009 E2FP0113 E2FP0112 E2FP0111 E2FP0110 E2FP0071 E2FP0070 E2FP0117 E2FP0106 E2FP0104 E2FP0100 E2FP0018 E2FP025D E2FP025D AUFP2144 AUFP2145 AUFP2146  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0281 E2APM083 E2AP0089 E2AP0087 E2AP0084 E2AP0083 E2AP0082 E2AP0081 E2AP0080 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0117 E2JBJ003 E2FS0094 E2FS0095 E2FS0015 E2FS0014 E2FS0013 AUFS2992 E2FS020E  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0281 E2APM083 E2AP0089 E2AP0087 E2AP0084 E2AP0083 E2AP0082 E2AP0081 E2AP0080 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2AP0047 E2AP018A E2AP018A AUFP2305  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0281 E2APM083 E2AP0089 E2AP0161 E2AP0151 E2AP0079 E2JBJ009 E2FP0113 E2FP0112 E2FP0111 E2FP0110 E2FP0071 E2FP023H  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0281 E2APM083 E2AP0089 E2AP0087 E2AP0084 E2AP0083 E2AP0082 E2AP0081 E2AP0080 E2APM081 E2AP0050 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2JBJ013 E2AS0039 E2AS0038 E2AS0037 E2AS0036 E2AS0035 E2AS0043 E2AS0044 E2AS011B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0281 E2APM083 E2AP0089 E2AP0087 E2AP0084 E2AP0083 E2AP0082 E2AP0081 E2AP0080 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2AP0047 E2JBJ006 E2FP0030 E2FP0029 E2FP0026 E2FP022B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0281 E2AP0167 E2AP0166 E2AP0165 E2AP0158 E2AP016B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP016B E2AP0158 E2AP0157 E2APM101 E2AP0235 E2AP0234 E2AP0233  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS2009 CDFS2008 CDFS021E CDFS2095 CDFS2091 CDFS2076 E2FS021D E2FS021D E2FS0009 E2FS0093 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2AP0060 E2AP0067 E2AP0177 E2AP0176 E2AP0091 E2AP0175 E2AP0244  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS2091 CDFS2076 E2FS021D E2FS021D E2FS0009 E2FS0093 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2AP0060 E2AP0067 E2AP0177 E2AP0176 E2AP0091 E2AP0175 E2AP0244  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AS011B E2AS0044 E2AS0043 E2AS0035 E2AS0036 E2AP013A ECAS0051 ECAS0052 ECAS0053  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AS011B E2AS0044 E2AS0043 E2AS0034 E2AS0033 E2AP014E ECAS0031  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AS011B E2AS0044 E2AS0043 E2AS0035 E2AS0036 E2AP013A ECAS0051 ECAS0054  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AS011B E2AS0044 E2AS0043 E2AS0035 E2AS0036 E2AP013A ECAS0051 ECAS0052 ECAS0050  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AS011B E2AS0044 E2AS0043 E2AS0035 E2AS0036 E2AS0037 E2AS0138 E2AP014H  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AS011B E2AS0044 E2AS0043 E2AS0034 E2AS0033 E2AP014G  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AS011B E2AS0044 E2AS0043 E2AS0035 E2AS0036 E2AS0037 E2AS0038 E2AS0039 E2JBJ013 E2AP0059 E2AP0058 E2AP0057 E2AP0055 E2AP0049 E2AP0050 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0084 E2AP0087 E2AP1000 ECAP0185 ECAP0186 ECAP0010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0202 E2FP0098 E2FP0021 E2FP0020 E2FP0023 E2FP0022 E2JBJ017 E2FS0002 E2FS0001 E2FS025A E2FS025A AUFS2003 AUFS2309 AUFS2008 AUFS2009 AUFS2014 AUFS2013 AUFS2018 AUFS024F  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFP025D AUFP2320 AUFP2318 AUFP2162 AUFP2163 AUFP2319 AUFP2164 AUFP2165 AUFP2166 AUFP2167 AUFP2168 AUFP2169 AUFP2170 AUFP2171 AUFP2154 AUFP2903 AUFP2334 AUFP2335 AUFP2148 AUFP2147 AUFP2146 AUFP2145 AUFP2144 E2FP025D E2FP025D E2FP0018 E2FP0100 E2FP0104 E2FP0106 E2FP0105 E2FP0024 E2FP0103 E2FP0021 E2FP0098 E2FP0202  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFS024F AUFS2018 AUFS2013 AUFS2014 AUFS2009 AUFS2008 AUFS2309 AUFS2003 E2FS025A E2FS025A E2FS0001 E2FS0002 E2FS0247 E2FS0184 E2FS0006 E2FS0069 E2FS0183  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAS0099 E2AS011E E2AS0045 E2AS0046 E2AS0047 E2AS0075 E2AS0074 E2AS0072 E2AS0118 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0050 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0160 E2APM084 E2AP0159 E2AP0241  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0213 E2FP0258 E2FP0116 E2JBJ007 E2AP0156 E2AP0155 E2AP0154 E2AP0153 E2AP0277 E2AP0168 E2AP0169 E2AP0243 E2AP0242  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAS0099 E2AS011E E2AS0045 E2AS0046 E2AS0047 E2AS0075 E2AS0074 E2AS0072 E2AS0118 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0050 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0084 E2AP014B ECAP0013 ECAP0005 ECAP0006  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAP0006 ECAP0005 ECAP0013 E2AP014B E2AP0084 E2AP0083 E2AP0082 E2AP0081 E2AP0080 E2APM081 E2APM082 E2AP0079 E2JBJ009 E2FP0113 E2FP0112 E2FP0111 E2FP0110 E2FP0071 E2FP0070 E2FP0117 E2FP0106 E2FP0031 E2FP023C E2FP023C AUFP2211 AUFP2212 AUFP2209 AUFP2210 AUFP2208 AUFP2207 AUFP2206 AUFP2205 AUFP2202 AUFS2993  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0236 E2AP0146 E2AP0147 E2AP0077 E2AP0078 E2AP0148 E2AP0152  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FS8003 E2JBJ016 E2FP025F E2FP025F AUFP9002 OUFP8060 OUFP8060 OUFP8061  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FS0184 E2FS0247 E2FS0002 E2JBJ017 E2FP0022 E2FP0023 E2FP0020 E2FP0101 E2FP0102 E2FP2002 E2FP2001 E2FP025E E2FP025E AUFP9001 OUFP0060 OUFP0060 OUFP0062 OUFP0067  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0154 E2AP0153 E2AP0277 E2AP0168 E2AP0169 E2AP0243 E2AP0282  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0282 E2AP0090 E2AP0287 E2AP0091 E2AP0176 E2JBJ014 E2AS0143  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AS0143 E2AS0142 E2AS0272  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0205 E2FP0107 E2FP0108 E2FP0210 E2FP0257 E2FP0209 E2FP0254 E2FP0253 E2FP0199  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0199 E2FP0253 E2FP0254 E2FP0209 E2FP0257 E2FP0210  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0199 E2FP0097 E2FP0096 E2FP0201 E2FP0200  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0200 E2FS0247 E2FS0002 E2FS0001 E2FS0003 E2FS0005 E2FS0185  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0205 E2FP0107 E2FP0108 E2FP0117 E2FP0070 E2FP0071 E2FP0110 E2FP0111 AUFS2991 E2FP021A E2FP021A AUFS2991 AUFP2242 AUFP2247  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0236 E2AP0146 E2AP0147 E2AP0077  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0077 E2AP0078 E2AP0148 E2AP0152  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0279 E2AP0280 E2AP0148 E2AP0152 E2APM087 E2AP0245 E2AP0088 E2AP0162  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0172 E2AP0171  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS2005 CDFS021C CDFS2093 CDFS2092 CDFS2079 CDFS2090 E2FS021B E2FS021B E2FS0008 E2FS0009 E2FS0093 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0050 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0160 E2AP014A ECAP0154 ECAP0003  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAP0236 ECAP0235 E2AP011A E2AP0178 E2AP0180  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0180 E2AP0181 E2AP0177 E2AP0182  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUFP0105 OUFP0103 OUFP0102 OUFP0501 OUFP0500  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUFP0500 OUFP0501  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAP0159 ECAP0007 ECAP0006 ECAP0005 ECAP0013 E2AP014B E2AP0084 E2AP0083 E2AP0160 E2APM084 E2AP0159 E2AP0241  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAP0159 ECAP0007 ECAP0006 ECAP0005 ECAP0013 E2AP014B E2AP0084 E2AP0083 E2AP0082 E2AP0081 E2AP0085 E2AP0156 E2AP0155 E2AP0154 E2AP0153 E2AP0238 E2AP0237 E3AP016H E3AP2236 E3AP2237 E3AP015H  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAP0007 ECAP0006 ECAP0005 ECAP0013 E2AP014B E2AP0084 E2AP0083 E2AP0082 E2AP0081 E2AP0080 E2APM081 E2AP0050 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0118 E2AS0072 E2AS0074 E2AS015A ECAS0015 ECAS0016 ECAS0017 ECAS0001 ECAS0018  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS2009 CDFS2008 CDFS021E CDFS2095 CDFS2091 CDFS2076 E2FS021D E2FS021D E2FS0009 E2FS0093 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0050 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0160 E2APM084 E2AP0159 E2AP0241  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS2089 E2FS020C E2FS020C E2FS0093 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2AP0060 E2AP0067 E2AP0177 E2AP0176 E2AP0091 E2AP0175 E2AP0174 E2AP0173  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFP2209 AUFP2212 AUFP2211 E2FP023C E2FP023C E2FP0031 E2FP0106 E2FP0105 E2FP0024 E2FP0103 E2FP0021 E2FP0020 E2FP0023 E2FP0022 E2JBJ017 E2FS0002 E2FS0001 E2FS0003 E2FS0005 E2FS0068  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FS0061 E2FS0010 E2FS0011  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FS0011 E2FS0012  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FS0012 E2JBJ005 E2AS0120  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AS0143 E2AP0286  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0286 E2AS0143 E2JBJ014 E2AP0176 E2AP0177 E2AP0067 E2AP0060 E2AP0059 E2AP0058 E2AP0057 E2AP0055 E2JBJ012 E2AP015A ECAP0132 ECAP0133 ECAP0129 ECAP0130  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAP0129 ECAP0133 ECAP0132 E2AP015A E2JBJ012 E2AP0055 E2AP0049 E2AP0050 E2AP0085 E2AP0156 E2AP0155 E2AP0154 E2AP0153 E2AP0277 E2AP0168  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0168 E2AP0169 E2AP0164 E2AP0163 E2AP0088 E2AP0278  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0278 E2AP0088 E2AP0245 E2APM087 E2AP0152 E2AP0148 E2AP0280 E2AP0279  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0275 E2AP0245 E2APM087 E2APM089 E2AP016A E2APM082 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0052 E2AP0053 E2AP0054 E2AP0276 E2AP0086 E2AP0051 E2AP0064  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0279 E2AP0280 E2AP0148 E2AP0078  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0064 E2AP0051 E2AP0086 E2AP0276 E2AP0054 E2AP0053 E2AP0052 E2AP0082 E2AP0081 E2AP0085 E2AP0156 E2AP0155 E2AP0154  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0154 E2AP0155 E2AP0156 E2JBJ007 E2FP0116 E2FP0115 E2FP0114 E2FP0255  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0255 E2FP0206 E2FP0205 E2FP0107 E2FP0108 E2FP0210  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0210 E2FP0257 E2FP0209 E2FP0254 E2FP0253 E2FP0199  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0199 E2FP0097  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0097 E2FP0096 E2FP0098 E2FP0021 E2FP0103 E2FP0024 E2FP0105 E2FP0106 E2FP0117 E2FP0070 E2FP0071 E2FP0110 E2FP0111 AUFS2991 E2FP021A E2FP021A AUFS2991 AUFP2242  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAS0002 E2AS012A E2AS0046 E2AS0045 E2AS0185 E2AS0184 E2AS0183 E2AP0183 E2AP0182 E2AP0177 E2AP0176 E2AP0091 E2AP0175 E2AP0174 E2AP0173  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAS0002 E2AS012A E2AS0046 E2AS0047 E2AS0075 E2AS0074 E2AS0072 E2AS0118 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0050 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0160 E2APM084 E2AP0159 E2AP0240  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAS0002 E2AS012A E2AS0046 E2AS0047 E2AS0075 E2AS0074 E2AS0072 E2AS0118 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0050 E2APM081 E2APM082 E2AP0079 E2JBJ009 E2FP0113 E2FP0112 E2FP0111 E2FP0110 E2FP0071 E2FP0070 E2FP0117 E2FP0106 E2FP0031 E2FP023C E2FP023C AUFP2211 AUFP2212 AUFP2209 AUFP2210  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFP2209 AUFP2212 AUFP2211 E2FP023C E2FP023C E2FP0031 E2FP0106 E2FP0117 E2FP0070 E2FP0071 E2FP0110 E2FP0111 E2FP0112 E2FP0113 E2JBJ009 E2AP0079 E2APM082 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0084 E2AP014B ECAP0013 ECAP0005 ECAP0006  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFP2209 AUFP2212 AUFP2211 E2FP023C E2FP023C E2FP0031 E2FP0106 E2FP0117 E2FP0070 E2FP0071 E2FP0110 E2FP0111 E2FP0112 E2FP0113 E2JBJ009 E2AP0079 E2APM082 E2AP016A E2APM089 E2APM087 E2AP0245 E2AP0088 E2AP0163 E2AP0164 E2AP0169 E2AP0243 E2AP0282 E2AP0090 E2AP0287 E2AP0091 E2AP0176 E2JBJ014 E2AS0143 E2AP0286  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFP2209 AUFP2212 AUFP2211 E2FP023C E2FP023C E2FP0031 E2FP0106 E2FP0105 E2FP0024 E2FP0103 E2FP0021 E2FP0098 E2FP0096 E2FP0097 E2FP0199 E2FP0253  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFS025B AUFS2009 AUFS2008 AUFS2309 AUFS2003 E2FS025A E2FS025A E2FS0001 E2FS0003 E2FS0005 E2FS0185 E2FS0249 E2FS0248  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFS025B AUFS2009 AUFS2008 AUFS2309 AUFS2003 E2FS025A E2FS025A E2FS0001 E2FS0003 E2FS0004 E2FS0194 E2FS0193 E2FS0192 E2FS0191 E2FS0251  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP157A E2AP0157 E2AP0150 E2AP0149 E2AP016A E2APM082 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0084 E2AP0087 E2AP1000 ECAP0185  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAP0165 ECAP0166 E2AP014C E2AP0057 E2AP0055 E2JBJ012 E2AP015A ECAP0132 ECAP0133  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AS0125 E2AS0126 E2AS0130 E2AS0129 E2AS0122 E2AS0123 E2AS0072 E2AS0118 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0050 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0084 E2AP0087 E2AP1000 ECAP0185 ECAP0186 ECAP0010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0114 E2FP0115 E2FP0116 E2FP0258  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0258 E2FP0116 E2JBJ007 E2AP0156 E2AP0155 E2AP0154 E2AP0153  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0153 E2AP0277  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0277 E2AP0168 E2AP0169 E2AP0243 E2AP0282 E2AP0090 E2AP0287  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0256 E2FP0112 E2FP0113 E2JBJ009 E2AP0079 E2APM082 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0052 E2AP0053 E2AP0063  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0063 E2AP0053 E2AP0054 E2AP0276  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0276 E2AP0054 E2AP0053 E2AP0052 E2AP0151 E2AP0161 E2AP0065  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0256 E2FP0112 E2FP0111 E2FP0110 E2FP0071  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0114 E2FP0255 E2FP0206 E2FP0205 E2FP0107 E2FP0108 E2FP0117 E2FP0106 E2FP0105 E2FP0024 E2FP0103 E2FP0021 E2FP0098 E2FP0096 E2FP0097  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0097 E2FP0096 E2FP0098 E2FP0021 E2FP0103 E2FP0024 E2FP0105 E2FP0106 E2FP0117 E2FP0108 E2FP0107  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0107 E2FP0108 E2FP0210 E2FP0257  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0257 E2FP0209 E2FP0254  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0114 E2FP0115 E2FP0116 E2JBJ007 E2AP0156 E2AP0085 E2AP0081 E2AP0082 E2AP0083 E2AP0084 E2AP0087 E2AP1000 ECAP0185 ECAP0186 ECAP0010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS2090 E2FS021B E2FS021B E2FS0008 E2FS0009 E2FS0093 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0050 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0084 E2AP0087 E2AP1000 ECAP0185 ECAP0186 ECAP0010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS2090 E2FS021B E2FS021B E2FS0008 E2FS0009 E2FS0093 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0050 E2APM081 E2AP0080 E2AP0081 E2AP0082 E2AP0083 E2AP0084 E2AP014B ECAP0013 ECAP0005 ECAP0006 ECAP0007 ECAP0159  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS2090 E2FS021B E2FS021B E2FS0008 E2FS0009 E2FS0093 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2AP0060 E2AP0067 E2AP0177 E2AP0176 E2AP0091 E2AP0175 E2AP0244  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0178 E2AP0180 E2AP0181  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0181 E2AP0177 E2AP0182  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0173 E2AP0174 E2AP0175 E2AP0091 E2AP0287 E2AP0090 E2AP0282 E2AP0243 E2AP0169 E2AP0168 E2AP0277 E2AP0153 E2AP0238 E2AP0237  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0173 E2AP0174 E2AP0175 E2AP0091 E2AP0176 E2JBJ014 E2AS0143 E2AS0142 E2AS0272 E2AS0126 E2AS0130 E2AS0129 E2AS0122 E2AS0121 E2AS0218  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0173 E2AP0174 E2AP0175 E2AP0091 E2AP0176 E2AP0177 E2AP0067 E2AP0060 E2AP0059 E2AP0058 E2AP0057 E2AP0055 E2AP0049 E2AP0050 E2APM081 E2APM082 E2AP0079 E2JBJ009 E2FP0113 E2FP0112 E2FP0111 E2FP0110 E2FP0071 E2FP0070 E2FP0117 E2FP0106 E2FP0031 E2FP023C E2FP023C AUFP2211 AUFP2212 AUFP2209  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0173 E2AP0174 E2AP0175 E2AP0091 E2AP0176 E2AP0177 E2AP0067 E2AP0060 E2AP0059 E2AP0058 E2AP0057 E2AP0055 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0117 E2JBJ003 E2FS0094 E2FS0093 E2FS020C E2FS020C CDFS2089  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0173 E2AP0174 E2AP0175 E2AP0091 E2AP0176 E2AP0177 E2AP0067 E2AP0060 E2AP0059 E2AP0058 E2AP0057 E2AP0055 E2AP0049 E2AP0050 E2APM081 E2APM082 E2AP0079 E2JBJ009 E2FP0113 E2FP0112 E2FP0111 E2FP0110 E2FP0071 E2FP0070 E2FP0117 E2FP0106 E2FP0104 E2FP0100 E2FP0099 E2FP0019 E2FP025A E2FP025A AUFP2152  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFP023B AUFP2323 AUFP2188 AUFP2189 AUFP2190 AUFP2191 AUFP2192 AUFP2193 AUFP2194 AUFP2195 AUFP2197 AUFP2154 AUFP2903 AUFP2334 AUFP2335 AUFP2148 AUFP2147 AUFP2146 AUFP2145 AUFP2144 E2FP025D E2FP025D E2FP0018 E2FP0100 E2FP0104 E2FP0106 E2FP0105 E2FP0024 E2FP0103 E2FP0021 E2FP0020 E2FP0023 E2FP0022 E2JBJ017 E2FS0002 E2FS0001 E2FS0003 E2FS0005 E2FS0068 E2FS0181 E2FS0180  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FS020E AUFS2992 E2FS0013 E2FS0014 E2FS0015 E2FS0095 E2FS0094 E2FS0093 E2FS0009 E2FS0008 E2FS0007 E2FS0004 E2FS0003 E2FS0001 E2FS0002 E2JBJ017 E2FP0022 E2FP0023 E2FP0020 E2FP0021 E2FP0103 E2FP0024 E2FP0105 E2FP0106 E2FP0104 E2FP0100 E2FP0099 E2FP0019 E2FP025G  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP8903 E2FP8002 E2FP8001 E2FP8902 E2FP8902 AUFP8901 AUFP8901 OUFP8040 OUFP8041 OUFP8701 CMFP8010 CMFP8009 CMFS8008 CMFS8003 CMFS8001  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFP2216 AUFP2218 AUFP2324 AUFP2217 AUFP2176 AUFP2175 AUFP2174 AUFP2179 AUFP2180 AUFP2181 AUFP2186 AUFP2187 AUFP2322 AUFP2188 AUFP2323 E2FP022D E2FP022D E2FP0029 E2FP0026 E2FP0025 E2FP0023 E2FP0020 E2FP0021 E2FP0103 E2FP0024 E2FP0105 E2FP0106 E2FP0117 E2FP0070 E2FP0109 E2FP0028 E2FP023E  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP023F E2FP8006 E2FP8005 E2FP8001 E2FP8902 E2FP8902 AUFP8901 AUFP8901 OUFP8040 OUFP8041 OUFP8045 OUFP8001 OUFP8002  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP023E E2FP0028 E2FP0109 E2FP0070 E2FP0117 E2FP0106 E2FP0104 E2FP0100 E2FP0018 E2FP025D E2FP025D AUFP2144 AUFP2145 AUFP2146 AUFP2147 AUFP2148 AUFP2335 AUFP2334 AUFP2903 AUFP2153 AUFP2901 AUFP2901 OUFP0040 OUFP0051 OUFP2011 OUFP2005 OUFP0004 OUFP0003  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP023E E2FP0028 E2FP0109 E2FP0070 E2FP0117 E2FP0106 E2FP0104 E2FP0100 E2FP0018 E2FP025D E2FP025D AUFP2144 AUFP2145 AUFP2146 AUFP2147 AUFP2148 AUFP2335 AUFP2334 AUFP2903 AUFP2154 AUFP2197 AUFP2195 AUFP2194 AUFP2193 AUFP2192 AUFP2191 AUFP2190 AUFP2189 AUFP2188 AUFP2323 AUFP023B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP023E E2FP0028 E2FP0109 E2FP0070 E2FP0117 E2FP0106 E2FP0104 E2FP0100 E2FP0018 E2FP025D E2FP025D AUFP2144 AUFP2145 AUFP2146 AUFP2147 AUFP2148 AUFP2335 AUFP2334 AUFP2903 AUFP2154 AUFP2171 AUFP2333 AUFP2902 AUFP2902 OUFP0070 OUFP0053 OUFP2011 OUFP2005 OUFP0004 OUFP0003  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP023D E2FP4002 E2FP4001 E2FP025C E2FP025C AUFP4008 AUFP4009 AUFP4010 AUFP4011 AUFP4013 AUFP4002 AUFP4901 AUFP4901 OUFP4040 OUFP4051 OUFP4053 OUFP4401 OUFP4045 OUFP4044 OUFP4043 OUFP4038 OUFP4035 OUFP4020 OUFP4015  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP8903 E2FP8002 E2FP8001 E2FP8902 E2FP8902 AUFP8901 AUFP8901 OUFP8040 OUFP8041 OUFP8701 CMFP8010 CMFP8009 CMFS8008 CMFS8003 CMFS8002  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUFP2216 AUFP2218 AUFP2324 AUFP2217 AUFP2176 AUFP2175 AUFP2174 AUFP2179 AUFP2180 AUFP2181 AUFP2186 AUFP2187 AUFP2322 AUFP2188 AUFP2323 E2FP022D E2FP022D E2FP0029 E2FP0026 E2FP0025 E2FP0023 E2FP0020 E2FP0021 E2FP0103 E2FP0024 E2FP0105 E2FP0106 E2FP0117 E2FP0070 E2FP0109 E2FP0028 E2FP0207 E2FP023L  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP023K E2FP8006 E2FP8005 E2FP8001 E2FP8902 E2FP8902 AUFP8901 AUFP8901 OUFP8040 OUFP8041 OUFP8045 OUFP8001 OUFP8003  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP023L E2FP0207 E2FP0028 E2FP0109 E2FP0070 E2FP0117 E2FP0106 E2FP0104 E2FP0100 E2FP0018 E2FP025D E2FP025D AUFP2144 AUFP2145 AUFP2146 AUFP2147 AUFP2148 AUFP2335 AUFP2334 AUFP2903 AUFP2153 AUFP2901 AUFP2901 OUFP0040 OUFP0051 OUFP2011 OUFP2005 OUFP0004 OUFP0002  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP023L E2FP0207 E2FP0028 E2FP0109 E2FP0070 E2FP0117 E2FP0106 E2FP0105 E2FP0024 E2FP0103 E2FP0021 E2FP0020 E2FP0023 E2FP0025 E2FP0026 E2FP0029 E2FP022D E2FP022D AUFP2323 AUFP023B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP023L E2FP0207 E2FP0028 E2FP0109 E2FP0070 E2FP0117 E2FP0106 E2FP0104 E2FP0100 E2FP0018 E2FP025D E2FP025D AUFP2144 AUFP2145 AUFP2146 AUFP2147 AUFP2148 AUFP2335 AUFP2334 AUFP2903 AUFP2154 AUFP2171 AUFP2333 AUFP2902 AUFP2902 OUFP0070 OUFP0053 OUFP2011 OUFP2005 OUFP0004 OUFP0002  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP022A E2FP4002 E2FP4001 E2FP025C E2FP025C AUFP4008 AUFP4009 AUFP4010 AUFP4011 AUFP4013 AUFP4002 AUFP4901 AUFP4901 OUFP4040 OUFP4051 OUFP4053 OUFP4401 OUFP4045 OUFP4044 OUFP4043 OUFP4038 OUFP4035 OUFP4020 OUFP4019 OUFP4018 OUFP4017 OUFP4013  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP024A E2FP023A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP023J E2FP023B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FS0069 E2FS0006 E2FS0184 E2FS0247 E2FS0002 E2JBJ017 E2FP0022 E2FP024C E2FP024C AUFP2157 AUFP2158 AUFP2159 AUFP2160  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FS4001 E2JBJ018 E2FP025C E2FP025C AUFP4008  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FS0069 E2FS0006 E2FS0184 E2FS0247 E2FS0002 E2JBJ017 E2FP0022 E2FP0023 E2FP0025 E2FP0026 E2FP0029 E2FP022D E2FP022D AUFP2323 AUFP023B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0244 E2AP0175 E2AP0091 E2AP0176 E2AP0177 E2AP0067 E2AP0060 E2AP0059 E2AP0058 E2AP0057 E2AP0055 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0117 E2JBJ003 E2FS0094 E2FS0093 E2FS0009 E2FS021D E2FS021D CDFS2076 CDFS2091 CDFS2095 CDFS021E CDFS2008 CDFS2009  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2FP0193 E2FP0194 E2FP0198  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0086 E2AP0276 E2AP0054 E2AP0053 E2AP0052 E2AP0082 E2AP0081 E2AP0085 E2AP0156 E2AP0155 E2APM087 E2AP0152 E2JBJ010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2JBJ010 E2AP0152 E2AP0148 E2AP0280 E2AP0279  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS7901 E2FS020D E2FS020D E2FS5006 E2FS5021 E2FS5008 E2JB0021 E2FP5002 E2FP5011 E2FP5022 E2FP5020 E2JBJ008 E2FS5004 E2FS5005 E2FS5009 E2FS5010 E2AP014D ECAP7002  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDFS2089 E2FS020C E2FS020C E2FS0093 E2FS0094 E2JBJ003 E2AS0117 E2AS0119 E2AS0120 E2JBJ011 E2AP0048 E2AP0049 E2AP0050 E2APM081 E2APM082 E2AP016A E2APM089 E2APM088 E2AP0147 E2AP0077 E2AP0078  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0050 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2AP0060 E2AP0067 E2AP011C ECAP0244 ECAP0245  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0050 E2AP0049 E2AP0048 E2JBJ011 E2AS0120 E2AS0119 E2AS0117 E2JBJ003 E2FS0094 E2FS0093 E2FS0009 E2FS021D E2FS021D CDFS2076  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0050 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2AP0060 E2AP0067 E2AP011C ECAP0244 ECAS0105 ECAS0121  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0050 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2AP0060 E2AP0067 E2AP011C ECAP0244 ECAS0105 ECAS0122  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0081 E2AP0082 E2AP0083 E2AP0084 E2AP0087 E2AP1000 ECAP0185 ECAP0186 ECAP0010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0050 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2JBJ013 E2AS0039 E2AS0038 E2AS0037 E2AS0036 E2AS0035 E2AS0041 E2AP012B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0050 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2JBJ013 E2AS0039 E2AS0038 E2AS0037 E2AS0036 E2AS0035 E2AS0041 E2AS0042 E2AP011D  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0050 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2JBJ013 E2AS0039 E2AS0040 E2AP012C  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0050 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0059 E2JBJ013 E2AS0039 E2AS0040 E2AP011E  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0050 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0056 E2AP012A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3AP015H E3AP2237 E3AP2236 E3AP016H E2AP0237 E2AP0238 E2AP0153 E2AP0154 E2AP0155 E2AP0156 E2AP0085 E2AP0050 E2AP0049 E2AP0055 E2AP0057 E2AP0058 E2AP0056 E2AP011B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0240 E2AP0159 E2APM084 E2AP0160 E2AP014A ECAP0154  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2AP0241 E2AP0159 E2APM084 E2AP0160 E2AP0151 E2AP0079 E2JBJ009 E2FP0113 E2FP0112 E2FP0111 E2FP0110 E2FP0071 E2FP0070 E2FP0117 E2FP0106 E2FP0104 E2FP0100 E2FP0018 E2FP025D E2FP025D AUFP2144 AUFP2145 AUFP2146 AUFP2147 AUFP2148 AUFP2335 AUFP2334 AUFP2903 AUFP2154 AUFP2171 AUFP2170 AUFP2169 AUFP2168 AUFP2167 AUFP2166 AUFP2165  </t>
   </si>
 </sst>
 </file>
@@ -1264,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B538B6F-0778-4008-A54C-0FBF308B8223}">
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="J259" sqref="J259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1277,1327 +1727,2223 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>355</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>265</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>269</v>
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>271</v>
+        <v>364</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>273</v>
+        <v>366</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>278</v>
+        <v>371</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>372</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>287</v>
+        <v>376</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>288</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
